--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-10.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-10.xlsx
@@ -540,17 +540,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Nate Ament</t>
+          <t>Tramon Mark</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>TENN@FLA</t>
+          <t>TEX@ALA</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -559,28 +559,28 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" t="n">
         <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -601,17 +601,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Devin McGlockton</t>
+          <t>Nate Ament</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>LSU@VAN</t>
+          <t>TENN@FLA</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -620,28 +620,28 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I3" t="n">
+        <v>17</v>
+      </c>
+      <c r="J3" t="n">
         <v>4</v>
       </c>
-      <c r="J3" t="n">
-        <v>9</v>
-      </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
@@ -662,17 +662,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Labaron Philon Jr.</t>
+          <t>Devin McGlockton</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>TEX@ALA</t>
+          <t>LSU@VAN</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -684,25 +684,25 @@
         <v>13</v>
       </c>
       <c r="I4" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -723,12 +723,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Matas Vokietaitis</t>
+          <t>Labaron Philon Jr.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -742,28 +742,28 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I5" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O5" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -784,17 +784,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Jacob Crews</t>
+          <t>Pablo Tamba</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MIZ@MISS</t>
+          <t>LSU@VAN</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -803,10 +803,10 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
         <v>4</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +906,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Tramon Mark</t>
+          <t>Matas Vokietaitis</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -925,28 +925,28 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I8" t="n">
+        <v>8</v>
+      </c>
+      <c r="J8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2</v>
+      </c>
+      <c r="O8" t="n">
         <v>18</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="9">
@@ -1150,17 +1150,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Pablo Tamba</t>
+          <t>Jacob Crews</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>LSU@VAN</t>
+          <t>MIZ@MISS</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1169,10 +1169,10 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
         <v>4</v>
@@ -1187,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
@@ -1272,17 +1272,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>KeShawn Murphy</t>
+          <t>Malik Dia</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>ARK@AUB</t>
+          <t>MIZ@MISS</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1294,10 +1294,10 @@
         <v>24</v>
       </c>
       <c r="I14" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K14" t="n">
         <v>1</v>
@@ -1306,13 +1306,13 @@
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O14" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
@@ -1333,17 +1333,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Nijel Pack</t>
+          <t>Thomas Haugh</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>OU@TA&amp;M</t>
+          <t>TENN@FLA</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1352,20 +1352,20 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I15" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="J15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" t="n">
         <v>5</v>
       </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="O15" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16">
@@ -1394,17 +1394,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Thomas Haugh</t>
+          <t>Trevon Brazile</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>TENN@FLA</t>
+          <t>ARK@AUB</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1413,19 +1413,19 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I16" t="n">
         <v>13</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
@@ -1455,17 +1455,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Trevon Brazile</t>
+          <t>Meechie Johnson</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>ARK@AUB</t>
+          <t>UGA@SC</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1474,28 +1474,28 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J17" t="n">
+        <v>4</v>
+      </c>
+      <c r="K17" t="n">
         <v>5</v>
       </c>
-      <c r="K17" t="n">
-        <v>1</v>
-      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O17" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
@@ -1577,17 +1577,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Malik Dia</t>
+          <t>KeShawn Murphy</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>MIZ@MISS</t>
+          <t>ARK@AUB</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1599,10 +1599,10 @@
         <v>24</v>
       </c>
       <c r="I19" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K19" t="n">
         <v>1</v>
@@ -1611,13 +1611,13 @@
         <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20">
@@ -1638,17 +1638,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Meleek Thomas</t>
+          <t>Nijel Pack</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>ARK@AUB</t>
+          <t>OU@TA&amp;M</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1657,28 +1657,28 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I20" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J20" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O20" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
@@ -1699,17 +1699,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Denzel Aberdeen</t>
+          <t>Meleek Thomas</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>MSST@UK</t>
+          <t>ARK@AUB</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1718,28 +1718,28 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K21" t="n">
         <v>4</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O21" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
@@ -1760,12 +1760,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Jayden Epps</t>
+          <t>Denzel Aberdeen</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1779,16 +1779,16 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I22" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J22" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -1797,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O22" t="n">
         <v>33</v>
@@ -1821,17 +1821,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Meechie Johnson</t>
+          <t>Jayden Epps</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>UGA@SC</t>
+          <t>MSST@UK</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1843,22 +1843,22 @@
         <v>11</v>
       </c>
       <c r="I23" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
         <v>33</v>
@@ -2243,22 +2243,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Taylor Bol Bowen</t>
+          <t>Ilias Kamardine</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>TEX@ALA</t>
+          <t>MIZ@MISS</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2267,28 +2267,28 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="I30" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J30" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O30" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
@@ -2309,17 +2309,17 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Quincy Ballard</t>
+          <t>Taylor Bol Bowen</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>MSST@UK</t>
+          <t>TEX@ALA</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2328,16 +2328,16 @@
         </is>
       </c>
       <c r="H31" t="n">
+        <v>21</v>
+      </c>
+      <c r="I31" t="n">
+        <v>11</v>
+      </c>
+      <c r="J31" t="n">
         <v>10</v>
       </c>
-      <c r="I31" t="n">
-        <v>6</v>
-      </c>
-      <c r="J31" t="n">
-        <v>5</v>
-      </c>
       <c r="K31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -2346,10 +2346,10 @@
         <v>2</v>
       </c>
       <c r="N31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32">
@@ -2370,17 +2370,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Ilias Kamardine</t>
+          <t>Quincy Ballard</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>MIZ@MISS</t>
+          <t>MSST@UK</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2389,28 +2389,28 @@
         </is>
       </c>
       <c r="H32" t="n">
+        <v>10</v>
+      </c>
+      <c r="I32" t="n">
+        <v>6</v>
+      </c>
+      <c r="J32" t="n">
         <v>5</v>
       </c>
-      <c r="I32" t="n">
-        <v>7</v>
-      </c>
-      <c r="J32" t="n">
-        <v>1</v>
-      </c>
       <c r="K32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O32" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33">
@@ -2858,17 +2858,17 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Jaylen Carey</t>
+          <t>Anthony Robinson II</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>TENN@FLA</t>
+          <t>MIZ@MISS</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2877,19 +2877,19 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I40" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J40" t="n">
         <v>3</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>2</v>
       </c>
       <c r="O40" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41">
@@ -3041,17 +3041,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Anthony Robinson II</t>
+          <t>Myles Stute</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>MIZ@MISS</t>
+          <t>UGA@SC</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3066,22 +3066,22 @@
         <v>6</v>
       </c>
       <c r="J43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K43" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44">
@@ -3102,17 +3102,17 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Myles Stute</t>
+          <t>Jadon Jones</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>UGA@SC</t>
+          <t>OU@TA&amp;M</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -3121,19 +3121,19 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I44" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44" t="n">
         <v>1</v>
@@ -3142,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
@@ -3163,17 +3163,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Jadon Jones</t>
+          <t>Jaylen Carey</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>OU@TA&amp;M</t>
+          <t>TENN@FLA</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3185,25 +3185,25 @@
         <v>4</v>
       </c>
       <c r="I45" t="n">
+        <v>12</v>
+      </c>
+      <c r="J45" t="n">
         <v>3</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
       <c r="K45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O45" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46">
@@ -3346,17 +3346,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Somtochukwu Cyril</t>
+          <t>Amari Allen</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>UGA@SC</t>
+          <t>TEX@ALA</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -3365,28 +3365,28 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I48" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J48" t="n">
         <v>5</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49">
@@ -3529,17 +3529,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Mike Nwoko</t>
+          <t>Kevin Overton</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>LSU@VAN</t>
+          <t>ARK@AUB</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -3551,25 +3551,25 @@
         <v>8</v>
       </c>
       <c r="I51" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J51" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K51" t="n">
         <v>1</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O51" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52">
@@ -3590,17 +3590,17 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Xzayvier Brown</t>
+          <t>Mike Nwoko</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>OU@TA&amp;M</t>
+          <t>LSU@VAN</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3609,28 +3609,28 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I52" t="n">
+        <v>6</v>
+      </c>
+      <c r="J52" t="n">
         <v>7</v>
       </c>
-      <c r="J52" t="n">
-        <v>3</v>
-      </c>
       <c r="K52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N52" t="n">
         <v>3</v>
       </c>
       <c r="O52" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53">
@@ -3773,17 +3773,17 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Amari Allen</t>
+          <t>Somtochukwu Cyril</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>TEX@ALA</t>
+          <t>UGA@SC</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3792,28 +3792,28 @@
         </is>
       </c>
       <c r="H55" t="n">
+        <v>24</v>
+      </c>
+      <c r="I55" t="n">
         <v>18</v>
-      </c>
-      <c r="I55" t="n">
-        <v>11</v>
       </c>
       <c r="J55" t="n">
         <v>5</v>
       </c>
       <c r="K55" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O55" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56">
@@ -3895,17 +3895,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Kevin Overton</t>
+          <t>Xzayvier Brown</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>ARK@AUB</t>
+          <t>OU@TA&amp;M</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3914,25 +3914,25 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I57" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O57" t="n">
         <v>29</v>
@@ -4261,17 +4261,17 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Blue Cain</t>
+          <t>Mohamed Wague</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>UGA@SC</t>
+          <t>OU@TA&amp;M</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -4283,25 +4283,25 @@
         <v>11</v>
       </c>
       <c r="I63" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J63" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N63" t="n">
         <v>1</v>
       </c>
       <c r="O63" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64">
@@ -4322,17 +4322,17 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Mouhamed Dioubate</t>
+          <t>Marcus Millender</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>MSST@UK</t>
+          <t>UGA@SC</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -4341,28 +4341,28 @@
         </is>
       </c>
       <c r="H64" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I64" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J64" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K64" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O64" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65">
@@ -4444,17 +4444,17 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Mohamed Wague</t>
+          <t>Blue Cain</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>OU@TA&amp;M</t>
+          <t>UGA@SC</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -4466,25 +4466,25 @@
         <v>11</v>
       </c>
       <c r="I66" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J66" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
       <c r="M66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N66" t="n">
         <v>1</v>
       </c>
       <c r="O66" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67">
@@ -4566,17 +4566,17 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Marcus Millender</t>
+          <t>Mouhamed Dioubate</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>UGA@SC</t>
+          <t>MSST@UK</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -4585,28 +4585,28 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I68" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K68" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O68" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69">
@@ -4810,17 +4810,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Jalen Washington</t>
+          <t>Tae Davis</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>LSU@VAN</t>
+          <t>OU@TA&amp;M</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -4829,28 +4829,28 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I72" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J72" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K72" t="n">
         <v>1</v>
       </c>
       <c r="L72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O72" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="73">
@@ -4871,17 +4871,17 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Aiden Sherrell</t>
+          <t>Tyler Tanner</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>TEX@ALA</t>
+          <t>LSU@VAN</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -4890,28 +4890,28 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I73" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O73" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74">
@@ -4932,17 +4932,17 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Tyler Tanner</t>
+          <t>Karter Knox</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>LSU@VAN</t>
+          <t>ARK@AUB</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -4951,28 +4951,28 @@
         </is>
       </c>
       <c r="H74" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M74" t="n">
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O74" t="n">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75">
@@ -5054,17 +5054,17 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Elyjah Freeman</t>
+          <t>Jalen Washington</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>ARK@AUB</t>
+          <t>LSU@VAN</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -5073,28 +5073,28 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I76" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J76" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K76" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L76" t="n">
         <v>2</v>
       </c>
       <c r="M76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N76" t="n">
         <v>0</v>
       </c>
       <c r="O76" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77">
@@ -5115,17 +5115,17 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Tae Davis</t>
+          <t>Aiden Sherrell</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>OU@TA&amp;M</t>
+          <t>TEX@ALA</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -5134,28 +5134,28 @@
         </is>
       </c>
       <c r="H77" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I77" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J77" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K77" t="n">
         <v>1</v>
       </c>
       <c r="L77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O77" t="n">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78">
@@ -5176,17 +5176,17 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Rubén Dominguez</t>
+          <t>Elyjah Freeman</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>OU@TA&amp;M</t>
+          <t>ARK@AUB</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -5195,19 +5195,19 @@
         </is>
       </c>
       <c r="H78" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I78" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J78" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M78" t="n">
         <v>0</v>
@@ -5216,7 +5216,7 @@
         <v>0</v>
       </c>
       <c r="O78" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79">
@@ -5237,17 +5237,17 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Tahaad Pettiford</t>
+          <t>Rubén Dominguez</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>ARK@AUB</t>
+          <t>OU@TA&amp;M</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -5259,25 +5259,25 @@
         <v>10</v>
       </c>
       <c r="I79" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J79" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K79" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M79" t="n">
         <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O79" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80">
@@ -5298,17 +5298,17 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Shawn Jones Jr.</t>
+          <t>Tahaad Pettiford</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>MSST@UK</t>
+          <t>ARK@AUB</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -5317,28 +5317,28 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I80" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J80" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K80" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N80" t="n">
         <v>2</v>
       </c>
       <c r="O80" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81">
@@ -5359,17 +5359,17 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Karter Knox</t>
+          <t>Shawn Jones Jr.</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>ARK@AUB</t>
+          <t>MSST@UK</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -5378,28 +5378,28 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J81" t="n">
         <v>1</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
       </c>
       <c r="M81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O81" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82">
@@ -10513,20 +10513,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
@@ -10535,11 +10535,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
@@ -10548,11 +10548,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
@@ -10561,11 +10561,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -10574,7 +10574,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -10587,11 +10587,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Booz</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C8" t="n">
         <v>5</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-10.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-10.xlsx
@@ -540,17 +540,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tramon Mark</t>
+          <t>Derrion Reid</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>TEX@ALA</t>
+          <t>OU@TA&amp;M</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -559,28 +559,28 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" t="n">
+        <v>11</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>4</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -601,17 +601,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Nate Ament</t>
+          <t>Tramon Mark</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>TENN@FLA</t>
+          <t>TEX@ALA</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -620,28 +620,28 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J3" t="n">
         <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -662,17 +662,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Devin McGlockton</t>
+          <t>Nate Ament</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>LSU@VAN</t>
+          <t>TENN@FLA</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -681,28 +681,28 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I4" t="n">
+        <v>17</v>
+      </c>
+      <c r="J4" t="n">
         <v>4</v>
       </c>
-      <c r="J4" t="n">
-        <v>9</v>
-      </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O4" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
@@ -784,17 +784,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Pablo Tamba</t>
+          <t>Matas Vokietaitis</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>LSU@VAN</t>
+          <t>TEX@ALA</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -803,14 +803,14 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I6" t="n">
+        <v>8</v>
+      </c>
+      <c r="J6" t="n">
         <v>6</v>
       </c>
-      <c r="J6" t="n">
-        <v>4</v>
-      </c>
       <c r="K6" t="n">
         <v>1</v>
       </c>
@@ -818,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -845,17 +845,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Derrion Reid</t>
+          <t>Devin McGlockton</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>OU@TA&amp;M</t>
+          <t>LSU@VAN</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -864,28 +864,28 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I7" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -906,17 +906,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Matas Vokietaitis</t>
+          <t>James Scott</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>TEX@ALA</t>
+          <t>MIZ@MISS</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -925,13 +925,13 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I8" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
@@ -967,17 +967,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>James Scott</t>
+          <t>Jeremiah Wilkinson</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>MIZ@MISS</t>
+          <t>UGA@SC</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -989,25 +989,25 @@
         <v>7</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -1028,17 +1028,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Jeremiah Wilkinson</t>
+          <t>Marcus Hill</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>UGA@SC</t>
+          <t>OU@TA&amp;M</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1050,13 +1050,13 @@
         <v>7</v>
       </c>
       <c r="I10" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
         <v>1</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
@@ -1089,17 +1089,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Marcus Hill</t>
+          <t>Jacob Crews</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>OU@TA&amp;M</t>
+          <t>MIZ@MISS</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1108,19 +1108,19 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1129,7 +1129,7 @@
         <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
@@ -1150,17 +1150,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Jacob Crews</t>
+          <t>Pablo Tamba</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>MIZ@MISS</t>
+          <t>LSU@VAN</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1169,10 +1169,10 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J12" t="n">
         <v>4</v>
@@ -1187,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -1272,17 +1272,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Malik Dia</t>
+          <t>KeShawn Murphy</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>MIZ@MISS</t>
+          <t>ARK@AUB</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1294,10 +1294,10 @@
         <v>24</v>
       </c>
       <c r="I14" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K14" t="n">
         <v>1</v>
@@ -1306,13 +1306,13 @@
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
@@ -1577,17 +1577,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>KeShawn Murphy</t>
+          <t>Malik Dia</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ARK@AUB</t>
+          <t>MIZ@MISS</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1599,10 +1599,10 @@
         <v>24</v>
       </c>
       <c r="I19" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K19" t="n">
         <v>1</v>
@@ -1611,13 +1611,13 @@
         <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O19" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
@@ -2243,22 +2243,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Ilias Kamardine</t>
+          <t>Taylor Bol Bowen</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>MIZ@MISS</t>
+          <t>TEX@ALA</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2267,28 +2267,28 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="I30" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K30" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31">
@@ -2309,17 +2309,17 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Taylor Bol Bowen</t>
+          <t>Quincy Ballard</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>TEX@ALA</t>
+          <t>MSST@UK</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2328,28 +2328,28 @@
         </is>
       </c>
       <c r="H31" t="n">
+        <v>10</v>
+      </c>
+      <c r="I31" t="n">
+        <v>6</v>
+      </c>
+      <c r="J31" t="n">
+        <v>5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="n">
+        <v>3</v>
+      </c>
+      <c r="O31" t="n">
         <v>21</v>
-      </c>
-      <c r="I31" t="n">
-        <v>11</v>
-      </c>
-      <c r="J31" t="n">
-        <v>10</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>2</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="32">
@@ -2370,17 +2370,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Quincy Ballard</t>
+          <t>Ilias Kamardine</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>MSST@UK</t>
+          <t>MIZ@MISS</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2389,28 +2389,28 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I32" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O32" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33">
@@ -2675,17 +2675,17 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Jayden Stone</t>
+          <t>Boogie Fland</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>MIZ@MISS</t>
+          <t>TENN@FLA</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2694,25 +2694,25 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I37" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J37" t="n">
+        <v>3</v>
+      </c>
+      <c r="K37" t="n">
+        <v>5</v>
+      </c>
+      <c r="L37" t="n">
         <v>4</v>
       </c>
-      <c r="K37" t="n">
-        <v>4</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O37" t="n">
         <v>31</v>
@@ -2736,17 +2736,17 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Alex Condon</t>
+          <t>Jayden Stone</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>TENN@FLA</t>
+          <t>MIZ@MISS</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2755,28 +2755,28 @@
         </is>
       </c>
       <c r="H38" t="n">
+        <v>20</v>
+      </c>
+      <c r="I38" t="n">
         <v>16</v>
       </c>
-      <c r="I38" t="n">
-        <v>11</v>
-      </c>
       <c r="J38" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
       <c r="M38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39">
@@ -2797,17 +2797,17 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Marquel Sutton</t>
+          <t>Alex Condon</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>LSU@VAN</t>
+          <t>TENN@FLA</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2816,28 +2816,28 @@
         </is>
       </c>
       <c r="H39" t="n">
+        <v>16</v>
+      </c>
+      <c r="I39" t="n">
         <v>11</v>
       </c>
-      <c r="I39" t="n">
-        <v>13</v>
-      </c>
       <c r="J39" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40">
@@ -2858,17 +2858,17 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Anthony Robinson II</t>
+          <t>Marquel Sutton</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>MIZ@MISS</t>
+          <t>LSU@VAN</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2877,28 +2877,28 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I40" t="n">
+        <v>13</v>
+      </c>
+      <c r="J40" t="n">
         <v>6</v>
       </c>
-      <c r="J40" t="n">
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="n">
         <v>3</v>
       </c>
-      <c r="K40" t="n">
-        <v>6</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>2</v>
-      </c>
       <c r="O40" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41">
@@ -2919,17 +2919,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Boogie Fland</t>
+          <t>AJ Storr</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>TENN@FLA</t>
+          <t>MIZ@MISS</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2938,28 +2938,28 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I41" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42">
@@ -2980,12 +2980,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>AJ Storr</t>
+          <t>Anthony Robinson II</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2999,16 +2999,16 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="I42" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="J42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L42" t="n">
         <v>1</v>
@@ -3017,10 +3017,10 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O42" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43">
@@ -3346,17 +3346,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Amari Allen</t>
+          <t>Malachi Moreno</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>TEX@ALA</t>
+          <t>MSST@UK</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -3365,28 +3365,28 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I48" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J48" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K48" t="n">
+        <v>6</v>
+      </c>
+      <c r="L48" t="n">
         <v>4</v>
       </c>
-      <c r="L48" t="n">
-        <v>2</v>
-      </c>
       <c r="M48" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O48" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49">
@@ -3407,17 +3407,17 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Duke Miles</t>
+          <t>Amari Allen</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>LSU@VAN</t>
+          <t>TEX@ALA</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -3426,28 +3426,28 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I49" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50">
@@ -3468,17 +3468,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Darius Acuff Jr.</t>
+          <t>Duke Miles</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>ARK@AUB</t>
+          <t>LSU@VAN</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3487,28 +3487,28 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I50" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J50" t="n">
         <v>1</v>
       </c>
       <c r="K50" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O50" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51">
@@ -3529,12 +3529,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Kevin Overton</t>
+          <t>Darius Acuff Jr.</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3548,28 +3548,28 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I51" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="J51" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K51" t="n">
         <v>1</v>
       </c>
       <c r="L51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O51" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52">
@@ -3590,17 +3590,17 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Mike Nwoko</t>
+          <t>Xzayvier Brown</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>LSU@VAN</t>
+          <t>OU@TA&amp;M</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3609,28 +3609,28 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I52" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J52" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N52" t="n">
         <v>3</v>
       </c>
       <c r="O52" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53">
@@ -3651,17 +3651,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Malachi Moreno</t>
+          <t>Jordan Pope</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>MSST@UK</t>
+          <t>TEX@ALA</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3670,28 +3670,28 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I53" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="J53" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K53" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54">
@@ -3712,17 +3712,17 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Jordan Pope</t>
+          <t>Somtochukwu Cyril</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>TEX@ALA</t>
+          <t>UGA@SC</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3734,25 +3734,25 @@
         <v>24</v>
       </c>
       <c r="I54" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="J54" t="n">
+        <v>5</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
         <v>3</v>
       </c>
-      <c r="K54" t="n">
-        <v>1</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0</v>
-      </c>
       <c r="N54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O54" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55">
@@ -3773,17 +3773,17 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Somtochukwu Cyril</t>
+          <t>Xaivian Lee</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>UGA@SC</t>
+          <t>TENN@FLA</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3792,28 +3792,28 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="I55" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
       </c>
       <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
         <v>3</v>
       </c>
-      <c r="N55" t="n">
-        <v>1</v>
-      </c>
       <c r="O55" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56">
@@ -3834,17 +3834,17 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Xaivian Lee</t>
+          <t>Kevin Overton</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>TENN@FLA</t>
+          <t>ARK@AUB</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3853,7 +3853,7 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I56" t="n">
         <v>10</v>
@@ -3862,19 +3862,19 @@
         <v>4</v>
       </c>
       <c r="K56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O56" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57">
@@ -3895,17 +3895,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Xzayvier Brown</t>
+          <t>Mike Nwoko</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>OU@TA&amp;M</t>
+          <t>LSU@VAN</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3914,28 +3914,28 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I57" t="n">
+        <v>6</v>
+      </c>
+      <c r="J57" t="n">
         <v>7</v>
       </c>
-      <c r="J57" t="n">
-        <v>3</v>
-      </c>
       <c r="K57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N57" t="n">
         <v>3</v>
       </c>
       <c r="O57" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58">
@@ -4261,17 +4261,17 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Mohamed Wague</t>
+          <t>Blue Cain</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>OU@TA&amp;M</t>
+          <t>UGA@SC</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -4283,25 +4283,25 @@
         <v>11</v>
       </c>
       <c r="I63" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J63" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
       <c r="M63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N63" t="n">
         <v>1</v>
       </c>
       <c r="O63" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64">
@@ -4322,17 +4322,17 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Marcus Millender</t>
+          <t>Mouhamed Dioubate</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>UGA@SC</t>
+          <t>MSST@UK</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -4341,28 +4341,28 @@
         </is>
       </c>
       <c r="H64" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I64" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J64" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K64" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65">
@@ -4444,17 +4444,17 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Blue Cain</t>
+          <t>Mohamed Wague</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>UGA@SC</t>
+          <t>OU@TA&amp;M</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -4466,25 +4466,25 @@
         <v>11</v>
       </c>
       <c r="I66" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J66" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
       <c r="M66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N66" t="n">
         <v>1</v>
       </c>
       <c r="O66" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67">
@@ -4566,17 +4566,17 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Mouhamed Dioubate</t>
+          <t>Marcus Millender</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>MSST@UK</t>
+          <t>UGA@SC</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -4585,28 +4585,28 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I68" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J68" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K68" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O68" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69">
@@ -4810,17 +4810,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Tae Davis</t>
+          <t>Aiden Sherrell</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>OU@TA&amp;M</t>
+          <t>TEX@ALA</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -4829,28 +4829,28 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I72" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J72" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K72" t="n">
         <v>1</v>
       </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O72" t="n">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73">
@@ -4871,17 +4871,17 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Tyler Tanner</t>
+          <t>Tae Davis</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>LSU@VAN</t>
+          <t>OU@TA&amp;M</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -4890,28 +4890,28 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I73" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J73" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M73" t="n">
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O73" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="74">
@@ -4932,17 +4932,17 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Karter Knox</t>
+          <t>Tyler Tanner</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>ARK@AUB</t>
+          <t>LSU@VAN</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -4951,28 +4951,28 @@
         </is>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M74" t="n">
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O74" t="n">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75">
@@ -5115,17 +5115,17 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Aiden Sherrell</t>
+          <t>Elyjah Freeman</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>TEX@ALA</t>
+          <t>ARK@AUB</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -5140,22 +5140,22 @@
         <v>13</v>
       </c>
       <c r="J77" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K77" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N77" t="n">
         <v>0</v>
       </c>
       <c r="O77" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78">
@@ -5176,17 +5176,17 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Elyjah Freeman</t>
+          <t>Rubén Dominguez</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>ARK@AUB</t>
+          <t>OU@TA&amp;M</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -5195,19 +5195,19 @@
         </is>
       </c>
       <c r="H78" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I78" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J78" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M78" t="n">
         <v>0</v>
@@ -5216,7 +5216,7 @@
         <v>0</v>
       </c>
       <c r="O78" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79">
@@ -5237,17 +5237,17 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Rubén Dominguez</t>
+          <t>Tahaad Pettiford</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>OU@TA&amp;M</t>
+          <t>ARK@AUB</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -5259,25 +5259,25 @@
         <v>10</v>
       </c>
       <c r="I79" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J79" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M79" t="n">
         <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O79" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80">
@@ -5298,17 +5298,17 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Tahaad Pettiford</t>
+          <t>Shawn Jones Jr.</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>ARK@AUB</t>
+          <t>MSST@UK</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -5317,28 +5317,28 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I80" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K80" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N80" t="n">
         <v>2</v>
       </c>
       <c r="O80" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81">
@@ -5359,17 +5359,17 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Shawn Jones Jr.</t>
+          <t>Karter Knox</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>MSST@UK</t>
+          <t>ARK@AUB</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -5378,28 +5378,28 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
         <v>1</v>
       </c>
       <c r="K81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
       </c>
       <c r="M81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O81" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82">
@@ -6579,7 +6579,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Andrija Jelavić</t>
+          <t>Andrija Jelavic</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -6884,17 +6884,17 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Dylan James</t>
+          <t>Jamarion Davis-Fleming</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>UGA@SC</t>
+          <t>MSST@UK</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -6906,25 +6906,25 @@
         <v>5</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J106" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K106" t="n">
         <v>0</v>
       </c>
       <c r="L106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
       <c r="N106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O106" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107">
@@ -6945,17 +6945,17 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Jamarion Davis-Fleming</t>
+          <t>Mazi Mosley</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>MSST@UK</t>
+          <t>LSU@VAN</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -6967,25 +6967,25 @@
         <v>5</v>
       </c>
       <c r="I107" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J107" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L107" t="n">
         <v>0</v>
       </c>
       <c r="M107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O107" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="108">
@@ -7006,7 +7006,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Mazi Mosley</t>
+          <t>Rashad King</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -7031,13 +7031,13 @@
         <v>3</v>
       </c>
       <c r="J108" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K108" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M108" t="n">
         <v>0</v>
@@ -7046,7 +7046,7 @@
         <v>1</v>
       </c>
       <c r="O108" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109">
@@ -7067,17 +7067,17 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Rashad King</t>
+          <t>Sebastian Williams-Adams</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>LSU@VAN</t>
+          <t>ARK@AUB</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -7089,13 +7089,13 @@
         <v>5</v>
       </c>
       <c r="I109" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J109" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L109" t="n">
         <v>1</v>
@@ -7104,10 +7104,10 @@
         <v>0</v>
       </c>
       <c r="N109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O109" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="110">
@@ -7128,17 +7128,17 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Sebastian Williams-Adams</t>
+          <t>Troy Henderson</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>ARK@AUB</t>
+          <t>TENN@FLA</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -7153,22 +7153,22 @@
         <v>6</v>
       </c>
       <c r="J110" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M110" t="n">
         <v>0</v>
       </c>
       <c r="N110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O110" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111">
@@ -7189,17 +7189,17 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Troy Henderson</t>
+          <t>Zach Clemence</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>TENN@FLA</t>
+          <t>OU@TA&amp;M</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -7211,10 +7211,10 @@
         <v>5</v>
       </c>
       <c r="I111" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J111" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K111" t="n">
         <v>0</v>
@@ -7223,13 +7223,13 @@
         <v>0</v>
       </c>
       <c r="M111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N111" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O111" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="112">
@@ -7250,7 +7250,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Zach Clemence</t>
+          <t>Ali Dibba</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -7269,28 +7269,28 @@
         </is>
       </c>
       <c r="H112" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I112" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J112" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K112" t="n">
         <v>0</v>
       </c>
       <c r="L112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O112" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113">
@@ -7311,17 +7311,17 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Ali Dibba</t>
+          <t>Bishop Boswell</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>OU@TA&amp;M</t>
+          <t>TENN@FLA</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -7336,22 +7336,22 @@
         <v>4</v>
       </c>
       <c r="J113" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M113" t="n">
         <v>0</v>
       </c>
       <c r="N113" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O113" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114">
@@ -7372,17 +7372,17 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Bishop Boswell</t>
+          <t>D.J. Wagner</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>TENN@FLA</t>
+          <t>ARK@AUB</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -7397,22 +7397,22 @@
         <v>4</v>
       </c>
       <c r="J114" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K114" t="n">
         <v>2</v>
       </c>
       <c r="L114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M114" t="n">
         <v>0</v>
       </c>
       <c r="N114" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O114" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="115">
@@ -7433,17 +7433,17 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>D.J. Wagner</t>
+          <t>Dylan James</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>ARK@AUB</t>
+          <t>UGA@SC</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -7455,13 +7455,13 @@
         <v>4</v>
       </c>
       <c r="I115" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L115" t="n">
         <v>2</v>
@@ -7473,7 +7473,7 @@
         <v>1</v>
       </c>
       <c r="O115" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="116">
@@ -7982,7 +7982,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Justin Bailey</t>
+          <t>Justin Abson</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -8004,7 +8004,7 @@
         <v>3</v>
       </c>
       <c r="I124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J124" t="n">
         <v>2</v>
@@ -8013,16 +8013,16 @@
         <v>0</v>
       </c>
       <c r="L124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N124" t="n">
         <v>1</v>
       </c>
       <c r="O124" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125">
@@ -8043,17 +8043,17 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Kezza Giffa</t>
+          <t>Justin Bailey</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>MIZ@MISS</t>
+          <t>UGA@SC</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -8065,25 +8065,25 @@
         <v>3</v>
       </c>
       <c r="I125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M125" t="n">
         <v>0</v>
       </c>
       <c r="N125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O125" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="126">
@@ -8104,12 +8104,12 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Nicholas Randall</t>
+          <t>Kezza Giffa</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -8126,13 +8126,13 @@
         <v>3</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J126" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L126" t="n">
         <v>0</v>
@@ -8144,7 +8144,7 @@
         <v>0</v>
       </c>
       <c r="O126" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127">
@@ -8165,17 +8165,17 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Noah Williamson</t>
+          <t>Nicholas Randall</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>TEX@ALA</t>
+          <t>MIZ@MISS</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -8187,10 +8187,10 @@
         <v>3</v>
       </c>
       <c r="I127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K127" t="n">
         <v>0</v>
@@ -8199,13 +8199,13 @@
         <v>0</v>
       </c>
       <c r="M127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O127" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128">
@@ -8226,17 +8226,17 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Sergej Macura</t>
+          <t>Noah Williamson</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>MSST@UK</t>
+          <t>TEX@ALA</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -8248,25 +8248,25 @@
         <v>3</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J128" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O128" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="129">
@@ -8287,17 +8287,17 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Simeon Wilcher</t>
+          <t>Sergej Macura</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>TEX@ALA</t>
+          <t>MSST@UK</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -8309,25 +8309,25 @@
         <v>3</v>
       </c>
       <c r="I129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M129" t="n">
         <v>0</v>
       </c>
       <c r="N129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O129" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="130">
@@ -8348,17 +8348,17 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Brandon Walker</t>
+          <t>Simeon Wilcher</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>MSST@UK</t>
+          <t>TEX@ALA</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -8367,16 +8367,16 @@
         </is>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I130" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J130" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K130" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L130" t="n">
         <v>0</v>
@@ -8385,10 +8385,10 @@
         <v>0</v>
       </c>
       <c r="N130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O130" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="131">
@@ -8409,17 +8409,17 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Corey Chest</t>
+          <t>Brandon Walker</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>MIZ@MISS</t>
+          <t>MSST@UK</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -8431,10 +8431,10 @@
         <v>2</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K131" t="n">
         <v>0</v>
@@ -8443,13 +8443,13 @@
         <v>0</v>
       </c>
       <c r="M131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N131" t="n">
         <v>0</v>
       </c>
       <c r="O131" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132">
@@ -8470,17 +8470,17 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Elijah Strong</t>
+          <t>Corey Chest</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>UGA@SC</t>
+          <t>MIZ@MISS</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -8492,10 +8492,10 @@
         <v>2</v>
       </c>
       <c r="I132" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K132" t="n">
         <v>0</v>
@@ -8504,13 +8504,13 @@
         <v>0</v>
       </c>
       <c r="M132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N132" t="n">
         <v>0</v>
       </c>
       <c r="O132" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133">
@@ -8531,17 +8531,17 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Isaiah Brown</t>
+          <t>Elijah Strong</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>TENN@FLA</t>
+          <t>UGA@SC</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -8553,10 +8553,10 @@
         <v>2</v>
       </c>
       <c r="I133" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K133" t="n">
         <v>0</v>
@@ -8571,7 +8571,7 @@
         <v>0</v>
       </c>
       <c r="O133" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="134">
@@ -8592,17 +8592,17 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Jamie Vinson</t>
+          <t>Isaiah Brown</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>OU@TA&amp;M</t>
+          <t>TENN@FLA</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -8614,7 +8614,7 @@
         <v>2</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J134" t="n">
         <v>1</v>
@@ -8623,16 +8623,16 @@
         <v>0</v>
       </c>
       <c r="L134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N134" t="n">
         <v>0</v>
       </c>
       <c r="O134" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="135">
@@ -8653,17 +8653,17 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Justin Abson</t>
+          <t>Jamie Vinson</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>UGA@SC</t>
+          <t>OU@TA&amp;M</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -8678,22 +8678,22 @@
         <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K135" t="n">
         <v>0</v>
       </c>
       <c r="L135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
       <c r="N135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O135" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136">
@@ -10513,20 +10513,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
@@ -10535,11 +10535,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
@@ -10548,11 +10548,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
@@ -10574,11 +10574,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Booz</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
@@ -10587,11 +10587,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C8" t="n">
         <v>5</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-10.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-10.xlsx
@@ -540,17 +540,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Derrion Reid</t>
+          <t>Tramon Mark</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>OU@TA&amp;M</t>
+          <t>TEX@ALA</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -559,28 +559,28 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J2" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>2</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -601,17 +601,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Tramon Mark</t>
+          <t>Nate Ament</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>TEX@ALA</t>
+          <t>TENN@FLA</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -620,28 +620,28 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J3" t="n">
         <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
@@ -662,17 +662,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Nate Ament</t>
+          <t>Devin McGlockton</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>TENN@FLA</t>
+          <t>LSU@VAN</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -681,28 +681,28 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>17</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2</v>
-      </c>
-      <c r="O4" t="n">
-        <v>27</v>
       </c>
     </row>
     <row r="5">
@@ -784,17 +784,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Matas Vokietaitis</t>
+          <t>Pablo Tamba</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>TEX@ALA</t>
+          <t>LSU@VAN</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -803,13 +803,13 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
@@ -818,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
@@ -845,17 +845,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Devin McGlockton</t>
+          <t>Derrion Reid</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>LSU@VAN</t>
+          <t>OU@TA&amp;M</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -864,28 +864,28 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I7" t="n">
+        <v>19</v>
+      </c>
+      <c r="J7" t="n">
+        <v>11</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
         <v>4</v>
       </c>
-      <c r="J7" t="n">
-        <v>9</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="n">
-        <v>2</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
       <c r="O7" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -906,17 +906,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>James Scott</t>
+          <t>Matas Vokietaitis</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>MIZ@MISS</t>
+          <t>TEX@ALA</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -925,13 +925,13 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O8" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -967,17 +967,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Jeremiah Wilkinson</t>
+          <t>James Scott</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>UGA@SC</t>
+          <t>MIZ@MISS</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -989,25 +989,25 @@
         <v>7</v>
       </c>
       <c r="I9" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
@@ -1028,17 +1028,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Marcus Hill</t>
+          <t>Jeremiah Wilkinson</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>OU@TA&amp;M</t>
+          <t>UGA@SC</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1050,13 +1050,13 @@
         <v>7</v>
       </c>
       <c r="I10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>1</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -1089,17 +1089,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Jacob Crews</t>
+          <t>Marcus Hill</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>MIZ@MISS</t>
+          <t>OU@TA&amp;M</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1108,19 +1108,19 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1129,7 +1129,7 @@
         <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
@@ -1150,17 +1150,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Pablo Tamba</t>
+          <t>Jacob Crews</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>LSU@VAN</t>
+          <t>MIZ@MISS</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1169,10 +1169,10 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
         <v>4</v>
@@ -1187,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
@@ -1272,17 +1272,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>KeShawn Murphy</t>
+          <t>Malik Dia</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>ARK@AUB</t>
+          <t>MIZ@MISS</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1294,10 +1294,10 @@
         <v>24</v>
       </c>
       <c r="I14" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K14" t="n">
         <v>1</v>
@@ -1306,13 +1306,13 @@
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O14" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
@@ -1577,17 +1577,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Malik Dia</t>
+          <t>KeShawn Murphy</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>MIZ@MISS</t>
+          <t>ARK@AUB</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1599,10 +1599,10 @@
         <v>24</v>
       </c>
       <c r="I19" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K19" t="n">
         <v>1</v>
@@ -1611,13 +1611,13 @@
         <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20">
@@ -2243,22 +2243,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Taylor Bol Bowen</t>
+          <t>Ilias Kamardine</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>TEX@ALA</t>
+          <t>MIZ@MISS</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2267,28 +2267,28 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="I30" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J30" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O30" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
@@ -2309,17 +2309,17 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Quincy Ballard</t>
+          <t>Taylor Bol Bowen</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>MSST@UK</t>
+          <t>TEX@ALA</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2328,16 +2328,16 @@
         </is>
       </c>
       <c r="H31" t="n">
+        <v>21</v>
+      </c>
+      <c r="I31" t="n">
+        <v>11</v>
+      </c>
+      <c r="J31" t="n">
         <v>10</v>
       </c>
-      <c r="I31" t="n">
-        <v>6</v>
-      </c>
-      <c r="J31" t="n">
-        <v>5</v>
-      </c>
       <c r="K31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -2346,10 +2346,10 @@
         <v>2</v>
       </c>
       <c r="N31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32">
@@ -2370,17 +2370,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Ilias Kamardine</t>
+          <t>Quincy Ballard</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>MIZ@MISS</t>
+          <t>MSST@UK</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2389,28 +2389,28 @@
         </is>
       </c>
       <c r="H32" t="n">
+        <v>10</v>
+      </c>
+      <c r="I32" t="n">
+        <v>6</v>
+      </c>
+      <c r="J32" t="n">
         <v>5</v>
       </c>
-      <c r="I32" t="n">
-        <v>7</v>
-      </c>
-      <c r="J32" t="n">
-        <v>1</v>
-      </c>
       <c r="K32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O32" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33">
@@ -2675,17 +2675,17 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Boogie Fland</t>
+          <t>Jayden Stone</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>TENN@FLA</t>
+          <t>MIZ@MISS</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2694,25 +2694,25 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I37" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O37" t="n">
         <v>31</v>
@@ -2736,17 +2736,17 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Jayden Stone</t>
+          <t>Alex Condon</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>MIZ@MISS</t>
+          <t>TENN@FLA</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2755,28 +2755,28 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I38" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J38" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39">
@@ -2797,17 +2797,17 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Alex Condon</t>
+          <t>Marquel Sutton</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>TENN@FLA</t>
+          <t>LSU@VAN</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2816,28 +2816,28 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I39" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J39" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="n">
         <v>3</v>
       </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="n">
-        <v>3</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
       <c r="O39" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40">
@@ -2858,17 +2858,17 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Marquel Sutton</t>
+          <t>Anthony Robinson II</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>LSU@VAN</t>
+          <t>MIZ@MISS</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2877,28 +2877,28 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I40" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J40" t="n">
+        <v>3</v>
+      </c>
+      <c r="K40" t="n">
         <v>6</v>
       </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O40" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41">
@@ -2919,17 +2919,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>AJ Storr</t>
+          <t>Boogie Fland</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>MIZ@MISS</t>
+          <t>TENN@FLA</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2938,28 +2938,28 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I41" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J41" t="n">
+        <v>3</v>
+      </c>
+      <c r="K41" t="n">
         <v>5</v>
       </c>
-      <c r="K41" t="n">
-        <v>1</v>
-      </c>
       <c r="L41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O41" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42">
@@ -2980,12 +2980,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Anthony Robinson II</t>
+          <t>AJ Storr</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2999,16 +2999,16 @@
         </is>
       </c>
       <c r="H42" t="n">
+        <v>25</v>
+      </c>
+      <c r="I42" t="n">
+        <v>26</v>
+      </c>
+      <c r="J42" t="n">
         <v>5</v>
       </c>
-      <c r="I42" t="n">
-        <v>6</v>
-      </c>
-      <c r="J42" t="n">
-        <v>3</v>
-      </c>
       <c r="K42" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L42" t="n">
         <v>1</v>
@@ -3017,10 +3017,10 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43">
@@ -3346,17 +3346,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Malachi Moreno</t>
+          <t>Amari Allen</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>MSST@UK</t>
+          <t>TEX@ALA</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -3365,28 +3365,28 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I48" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J48" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K48" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L48" t="n">
+        <v>2</v>
+      </c>
+      <c r="M48" t="n">
         <v>4</v>
       </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
       <c r="N48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49">
@@ -3407,17 +3407,17 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Amari Allen</t>
+          <t>Duke Miles</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>TEX@ALA</t>
+          <t>LSU@VAN</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -3426,28 +3426,28 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I49" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J49" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" t="n">
         <v>5</v>
       </c>
-      <c r="K49" t="n">
-        <v>4</v>
-      </c>
       <c r="L49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M49" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O49" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50">
@@ -3468,17 +3468,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Duke Miles</t>
+          <t>Darius Acuff Jr.</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>LSU@VAN</t>
+          <t>ARK@AUB</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3487,28 +3487,28 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I50" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J50" t="n">
         <v>1</v>
       </c>
       <c r="K50" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O50" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51">
@@ -3529,12 +3529,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Darius Acuff Jr.</t>
+          <t>Kevin Overton</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3548,28 +3548,28 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I51" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K51" t="n">
         <v>1</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O51" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52">
@@ -3590,17 +3590,17 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Xzayvier Brown</t>
+          <t>Mike Nwoko</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>OU@TA&amp;M</t>
+          <t>LSU@VAN</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3609,28 +3609,28 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I52" t="n">
+        <v>6</v>
+      </c>
+      <c r="J52" t="n">
         <v>7</v>
       </c>
-      <c r="J52" t="n">
-        <v>3</v>
-      </c>
       <c r="K52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N52" t="n">
         <v>3</v>
       </c>
       <c r="O52" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53">
@@ -3651,17 +3651,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Jordan Pope</t>
+          <t>Malachi Moreno</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>TEX@ALA</t>
+          <t>MSST@UK</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3670,28 +3670,28 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I53" t="n">
+        <v>17</v>
+      </c>
+      <c r="J53" t="n">
+        <v>8</v>
+      </c>
+      <c r="K53" t="n">
+        <v>6</v>
+      </c>
+      <c r="L53" t="n">
+        <v>4</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>1</v>
+      </c>
+      <c r="O53" t="n">
         <v>28</v>
-      </c>
-      <c r="J53" t="n">
-        <v>3</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" t="n">
-        <v>0</v>
-      </c>
-      <c r="O53" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="54">
@@ -3712,17 +3712,17 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Somtochukwu Cyril</t>
+          <t>Jordan Pope</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>UGA@SC</t>
+          <t>TEX@ALA</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3734,25 +3734,25 @@
         <v>24</v>
       </c>
       <c r="I54" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55">
@@ -3773,17 +3773,17 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Xaivian Lee</t>
+          <t>Somtochukwu Cyril</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>TENN@FLA</t>
+          <t>UGA@SC</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3792,28 +3792,28 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="I55" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
         <v>3</v>
       </c>
-      <c r="L55" t="n">
-        <v>0</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0</v>
-      </c>
       <c r="N55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O55" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56">
@@ -3834,17 +3834,17 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Kevin Overton</t>
+          <t>Xaivian Lee</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>ARK@AUB</t>
+          <t>TENN@FLA</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3853,7 +3853,7 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I56" t="n">
         <v>10</v>
@@ -3862,19 +3862,19 @@
         <v>4</v>
       </c>
       <c r="K56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O56" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57">
@@ -3895,17 +3895,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Mike Nwoko</t>
+          <t>Xzayvier Brown</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>LSU@VAN</t>
+          <t>OU@TA&amp;M</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3914,28 +3914,28 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I57" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J57" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
         <v>3</v>
       </c>
       <c r="O57" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58">
@@ -4261,17 +4261,17 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Blue Cain</t>
+          <t>Mohamed Wague</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>UGA@SC</t>
+          <t>OU@TA&amp;M</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -4283,25 +4283,25 @@
         <v>11</v>
       </c>
       <c r="I63" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J63" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N63" t="n">
         <v>1</v>
       </c>
       <c r="O63" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64">
@@ -4322,17 +4322,17 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Mouhamed Dioubate</t>
+          <t>Marcus Millender</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>MSST@UK</t>
+          <t>UGA@SC</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -4341,28 +4341,28 @@
         </is>
       </c>
       <c r="H64" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I64" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J64" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K64" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O64" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65">
@@ -4444,17 +4444,17 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Mohamed Wague</t>
+          <t>Blue Cain</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>OU@TA&amp;M</t>
+          <t>UGA@SC</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -4466,25 +4466,25 @@
         <v>11</v>
       </c>
       <c r="I66" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J66" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
       <c r="M66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N66" t="n">
         <v>1</v>
       </c>
       <c r="O66" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67">
@@ -4566,17 +4566,17 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Marcus Millender</t>
+          <t>Mouhamed Dioubate</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>UGA@SC</t>
+          <t>MSST@UK</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -4585,28 +4585,28 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I68" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K68" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O68" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69">
@@ -4810,17 +4810,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Aiden Sherrell</t>
+          <t>Tae Davis</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>TEX@ALA</t>
+          <t>OU@TA&amp;M</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -4829,28 +4829,28 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I72" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J72" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K72" t="n">
         <v>1</v>
       </c>
       <c r="L72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O72" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="73">
@@ -4871,17 +4871,17 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Tae Davis</t>
+          <t>Tyler Tanner</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>OU@TA&amp;M</t>
+          <t>LSU@VAN</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -4890,28 +4890,28 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I73" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J73" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M73" t="n">
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O73" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74">
@@ -4932,17 +4932,17 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Tyler Tanner</t>
+          <t>Karter Knox</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>LSU@VAN</t>
+          <t>ARK@AUB</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -4951,28 +4951,28 @@
         </is>
       </c>
       <c r="H74" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M74" t="n">
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O74" t="n">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75">
@@ -5115,17 +5115,17 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Elyjah Freeman</t>
+          <t>Aiden Sherrell</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>ARK@AUB</t>
+          <t>TEX@ALA</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -5140,22 +5140,22 @@
         <v>13</v>
       </c>
       <c r="J77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K77" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N77" t="n">
         <v>0</v>
       </c>
       <c r="O77" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78">
@@ -5176,17 +5176,17 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Rubén Dominguez</t>
+          <t>Elyjah Freeman</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>OU@TA&amp;M</t>
+          <t>ARK@AUB</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -5195,19 +5195,19 @@
         </is>
       </c>
       <c r="H78" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I78" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J78" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M78" t="n">
         <v>0</v>
@@ -5216,7 +5216,7 @@
         <v>0</v>
       </c>
       <c r="O78" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79">
@@ -5237,17 +5237,17 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Tahaad Pettiford</t>
+          <t>Rubén Dominguez</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>ARK@AUB</t>
+          <t>OU@TA&amp;M</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -5259,25 +5259,25 @@
         <v>10</v>
       </c>
       <c r="I79" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J79" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K79" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M79" t="n">
         <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O79" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80">
@@ -5298,17 +5298,17 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Shawn Jones Jr.</t>
+          <t>Tahaad Pettiford</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>MSST@UK</t>
+          <t>ARK@AUB</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -5317,28 +5317,28 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I80" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J80" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K80" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N80" t="n">
         <v>2</v>
       </c>
       <c r="O80" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81">
@@ -5359,17 +5359,17 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Karter Knox</t>
+          <t>Shawn Jones Jr.</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>ARK@AUB</t>
+          <t>MSST@UK</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -5378,28 +5378,28 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J81" t="n">
         <v>1</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
       </c>
       <c r="M81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O81" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82">
@@ -10513,20 +10513,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
@@ -10535,11 +10535,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
@@ -10548,11 +10548,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
@@ -10574,11 +10574,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
@@ -10587,11 +10587,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Booz</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C8" t="n">
         <v>5</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-10.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-10.xlsx
@@ -540,17 +540,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tramon Mark</t>
+          <t>Derrion Reid</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>TEX@ALA</t>
+          <t>OU@TA&amp;M</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -559,28 +559,28 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" t="n">
+        <v>11</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>4</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -601,17 +601,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Nate Ament</t>
+          <t>Tramon Mark</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>TENN@FLA</t>
+          <t>TEX@ALA</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -620,28 +620,28 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J3" t="n">
         <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -723,12 +723,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Labaron Philon Jr.</t>
+          <t>Matas Vokietaitis</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -742,28 +742,28 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I5" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O5" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -784,17 +784,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Pablo Tamba</t>
+          <t>Jeremiah Wilkinson</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>LSU@VAN</t>
+          <t>UGA@SC</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -803,28 +803,28 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -845,17 +845,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Derrion Reid</t>
+          <t>Nate Ament</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>OU@TA&amp;M</t>
+          <t>TENN@FLA</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -864,28 +864,28 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J7" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O7" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
@@ -906,12 +906,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Matas Vokietaitis</t>
+          <t>Labaron Philon Jr.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -925,28 +925,28 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I8" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O8" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -1028,17 +1028,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Jeremiah Wilkinson</t>
+          <t>Marcus Hill</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>UGA@SC</t>
+          <t>OU@TA&amp;M</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1050,13 +1050,13 @@
         <v>7</v>
       </c>
       <c r="I10" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
         <v>1</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
@@ -1089,17 +1089,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Marcus Hill</t>
+          <t>Jacob Crews</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>OU@TA&amp;M</t>
+          <t>MIZ@MISS</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1108,19 +1108,19 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1129,7 +1129,7 @@
         <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
@@ -1150,17 +1150,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Jacob Crews</t>
+          <t>Pablo Tamba</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>MIZ@MISS</t>
+          <t>LSU@VAN</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1169,10 +1169,10 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J12" t="n">
         <v>4</v>
@@ -1187,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Trevon Brazile</t>
+          <t>Meleek Thomas</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1413,28 +1413,28 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I16" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O16" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
@@ -1455,17 +1455,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Meechie Johnson</t>
+          <t>Denzel Aberdeen</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>UGA@SC</t>
+          <t>MSST@UK</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1474,25 +1474,25 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I17" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
         <v>4</v>
       </c>
-      <c r="K17" t="n">
-        <v>5</v>
-      </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O17" t="n">
         <v>33</v>
@@ -1516,17 +1516,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Ja'Kobi Gillespie</t>
+          <t>Meechie Johnson</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>TENN@FLA</t>
+          <t>UGA@SC</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1535,28 +1535,28 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J18" t="n">
         <v>4</v>
       </c>
       <c r="K18" t="n">
+        <v>5</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
         <v>3</v>
       </c>
-      <c r="L18" t="n">
-        <v>2</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="n">
-        <v>4</v>
-      </c>
       <c r="O18" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Meleek Thomas</t>
+          <t>Trevon Brazile</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1718,28 +1718,28 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I21" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
@@ -1760,12 +1760,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Denzel Aberdeen</t>
+          <t>Jayden Epps</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1779,16 +1779,16 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I22" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -1797,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O22" t="n">
         <v>33</v>
@@ -1821,17 +1821,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Jayden Epps</t>
+          <t>Ja'Kobi Gillespie</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>MSST@UK</t>
+          <t>TENN@FLA</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1840,28 +1840,28 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O23" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24">
@@ -2187,17 +2187,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Aden Holloway</t>
+          <t>Ilias Kamardine</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>TEX@ALA</t>
+          <t>MIZ@MISS</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2206,13 +2206,13 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="I29" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="J29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K29" t="n">
         <v>4</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O29" t="n">
         <v>29</v>
@@ -2248,17 +2248,17 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Ilias Kamardine</t>
+          <t>Collin Chandler</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>MIZ@MISS</t>
+          <t>MSST@UK</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I30" t="n">
         <v>7</v>
@@ -2276,19 +2276,19 @@
         <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
@@ -2370,17 +2370,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Quincy Ballard</t>
+          <t>Aden Holloway</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>MSST@UK</t>
+          <t>TEX@ALA</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2389,28 +2389,28 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I32" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="J32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33">
@@ -2431,17 +2431,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Kirill Elatontsev</t>
+          <t>Quincy Ballard</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>OU@TA&amp;M</t>
+          <t>MSST@UK</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2450,28 +2450,28 @@
         </is>
       </c>
       <c r="H33" t="n">
+        <v>10</v>
+      </c>
+      <c r="I33" t="n">
+        <v>6</v>
+      </c>
+      <c r="J33" t="n">
         <v>5</v>
       </c>
-      <c r="I33" t="n">
-        <v>2</v>
-      </c>
-      <c r="J33" t="n">
+      <c r="K33" t="n">
+        <v>2</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="n">
         <v>3</v>
       </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="n">
-        <v>1</v>
-      </c>
       <c r="O33" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34">
@@ -2492,17 +2492,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Collin Chandler</t>
+          <t>Kirill Elatontsev</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>MSST@UK</t>
+          <t>OU@TA&amp;M</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2511,28 +2511,28 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I34" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
@@ -2675,17 +2675,17 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Jayden Stone</t>
+          <t>Boogie Fland</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>MIZ@MISS</t>
+          <t>TENN@FLA</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2694,25 +2694,25 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I37" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J37" t="n">
+        <v>3</v>
+      </c>
+      <c r="K37" t="n">
+        <v>5</v>
+      </c>
+      <c r="L37" t="n">
         <v>4</v>
       </c>
-      <c r="K37" t="n">
-        <v>4</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O37" t="n">
         <v>31</v>
@@ -2736,17 +2736,17 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Alex Condon</t>
+          <t>Jayden Stone</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>TENN@FLA</t>
+          <t>MIZ@MISS</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2755,28 +2755,28 @@
         </is>
       </c>
       <c r="H38" t="n">
+        <v>20</v>
+      </c>
+      <c r="I38" t="n">
         <v>16</v>
       </c>
-      <c r="I38" t="n">
-        <v>11</v>
-      </c>
       <c r="J38" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
       <c r="M38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39">
@@ -2797,17 +2797,17 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Marquel Sutton</t>
+          <t>Alex Condon</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>LSU@VAN</t>
+          <t>TENN@FLA</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2816,28 +2816,28 @@
         </is>
       </c>
       <c r="H39" t="n">
+        <v>16</v>
+      </c>
+      <c r="I39" t="n">
         <v>11</v>
       </c>
-      <c r="I39" t="n">
-        <v>13</v>
-      </c>
       <c r="J39" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40">
@@ -2858,17 +2858,17 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Anthony Robinson II</t>
+          <t>Marquel Sutton</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>MIZ@MISS</t>
+          <t>LSU@VAN</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2877,28 +2877,28 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I40" t="n">
+        <v>13</v>
+      </c>
+      <c r="J40" t="n">
         <v>6</v>
       </c>
-      <c r="J40" t="n">
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="n">
         <v>3</v>
       </c>
-      <c r="K40" t="n">
-        <v>6</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>2</v>
-      </c>
       <c r="O40" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41">
@@ -2919,17 +2919,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Boogie Fland</t>
+          <t>AJ Storr</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>TENN@FLA</t>
+          <t>MIZ@MISS</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2938,28 +2938,28 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I41" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42">
@@ -2980,12 +2980,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>AJ Storr</t>
+          <t>Anthony Robinson II</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2999,16 +2999,16 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="I42" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="J42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L42" t="n">
         <v>1</v>
@@ -3017,10 +3017,10 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O42" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43">
@@ -3346,17 +3346,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Amari Allen</t>
+          <t>Malachi Moreno</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>TEX@ALA</t>
+          <t>MSST@UK</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -3365,28 +3365,28 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I48" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J48" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K48" t="n">
+        <v>6</v>
+      </c>
+      <c r="L48" t="n">
         <v>4</v>
       </c>
-      <c r="L48" t="n">
-        <v>2</v>
-      </c>
       <c r="M48" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O48" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49">
@@ -3407,17 +3407,17 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Duke Miles</t>
+          <t>Somtochukwu Cyril</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>LSU@VAN</t>
+          <t>UGA@SC</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -3426,28 +3426,28 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I49" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K49" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O49" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50">
@@ -3468,17 +3468,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Darius Acuff Jr.</t>
+          <t>Duke Miles</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>ARK@AUB</t>
+          <t>LSU@VAN</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3487,28 +3487,28 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I50" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J50" t="n">
         <v>1</v>
       </c>
       <c r="K50" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O50" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51">
@@ -3529,12 +3529,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Kevin Overton</t>
+          <t>Darius Acuff Jr.</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3548,28 +3548,28 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I51" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="J51" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K51" t="n">
         <v>1</v>
       </c>
       <c r="L51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O51" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52">
@@ -3590,17 +3590,17 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Mike Nwoko</t>
+          <t>Xaivian Lee</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>LSU@VAN</t>
+          <t>TENN@FLA</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3609,28 +3609,28 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I52" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J52" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N52" t="n">
         <v>3</v>
       </c>
       <c r="O52" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53">
@@ -3651,17 +3651,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Malachi Moreno</t>
+          <t>Jordan Pope</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>MSST@UK</t>
+          <t>TEX@ALA</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3670,28 +3670,28 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I53" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="J53" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K53" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54">
@@ -3712,12 +3712,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Jordan Pope</t>
+          <t>Amari Allen</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3731,28 +3731,28 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I54" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="J54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K54" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55">
@@ -3773,17 +3773,17 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Somtochukwu Cyril</t>
+          <t>Kevin Overton</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>UGA@SC</t>
+          <t>ARK@AUB</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3792,28 +3792,28 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I55" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O55" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56">
@@ -3834,17 +3834,17 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Xaivian Lee</t>
+          <t>Mike Nwoko</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>TENN@FLA</t>
+          <t>LSU@VAN</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3853,28 +3853,28 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I56" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J56" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N56" t="n">
         <v>3</v>
       </c>
       <c r="O56" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57">
@@ -4261,17 +4261,17 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Mohamed Wague</t>
+          <t>Blue Cain</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>OU@TA&amp;M</t>
+          <t>UGA@SC</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -4283,25 +4283,25 @@
         <v>11</v>
       </c>
       <c r="I63" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J63" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
       <c r="M63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N63" t="n">
         <v>1</v>
       </c>
       <c r="O63" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64">
@@ -4322,17 +4322,17 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Marcus Millender</t>
+          <t>Mohamed Wague</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>UGA@SC</t>
+          <t>OU@TA&amp;M</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -4341,28 +4341,28 @@
         </is>
       </c>
       <c r="H64" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I64" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J64" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K64" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
       <c r="M64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O64" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65">
@@ -4444,17 +4444,17 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Blue Cain</t>
+          <t>Rylan Griffen</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>UGA@SC</t>
+          <t>OU@TA&amp;M</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -4463,19 +4463,19 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I66" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J66" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M66" t="n">
         <v>0</v>
@@ -4505,17 +4505,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Rylan Griffen</t>
+          <t>Marcus Millender</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>OU@TA&amp;M</t>
+          <t>UGA@SC</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -4524,28 +4524,28 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I67" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M67" t="n">
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O67" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68">
@@ -4688,17 +4688,17 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Rashaun Agee</t>
+          <t>Max Mackinnon</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>OU@TA&amp;M</t>
+          <t>LSU@VAN</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -4710,25 +4710,25 @@
         <v>29</v>
       </c>
       <c r="I70" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J70" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="K70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L70" t="n">
         <v>2</v>
       </c>
       <c r="M70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O70" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="71">
@@ -4749,17 +4749,17 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Mike Sharavjamts</t>
+          <t>Rashaun Agee</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>UGA@SC</t>
+          <t>OU@TA&amp;M</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -4768,28 +4768,28 @@
         </is>
       </c>
       <c r="H71" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I71" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J71" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K71" t="n">
         <v>2</v>
       </c>
       <c r="L71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O71" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72">
@@ -4810,17 +4810,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Tae Davis</t>
+          <t>Mike Sharavjamts</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>OU@TA&amp;M</t>
+          <t>UGA@SC</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -4829,28 +4829,28 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I72" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J72" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M72" t="n">
         <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O72" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73">
@@ -4871,17 +4871,17 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Tyler Tanner</t>
+          <t>Tae Davis</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>LSU@VAN</t>
+          <t>OU@TA&amp;M</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -4890,28 +4890,28 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I73" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J73" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M73" t="n">
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O73" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="74">
@@ -4932,17 +4932,17 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Karter Knox</t>
+          <t>Tyler Tanner</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>ARK@AUB</t>
+          <t>LSU@VAN</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -4951,28 +4951,28 @@
         </is>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M74" t="n">
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O74" t="n">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75">
@@ -4993,12 +4993,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Max Mackinnon</t>
+          <t>Jalen Washington</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -5012,28 +5012,28 @@
         </is>
       </c>
       <c r="H75" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I75" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="J75" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K75" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L75" t="n">
         <v>2</v>
       </c>
       <c r="M75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O75" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76">
@@ -5054,17 +5054,17 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Jalen Washington</t>
+          <t>Aiden Sherrell</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>LSU@VAN</t>
+          <t>TEX@ALA</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -5073,28 +5073,28 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I76" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J76" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K76" t="n">
         <v>1</v>
       </c>
       <c r="L76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N76" t="n">
         <v>0</v>
       </c>
       <c r="O76" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77">
@@ -5115,17 +5115,17 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Aiden Sherrell</t>
+          <t>Elyjah Freeman</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>TEX@ALA</t>
+          <t>ARK@AUB</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -5140,22 +5140,22 @@
         <v>13</v>
       </c>
       <c r="J77" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K77" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N77" t="n">
         <v>0</v>
       </c>
       <c r="O77" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78">
@@ -5176,17 +5176,17 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Elyjah Freeman</t>
+          <t>Rubén Dominguez</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>ARK@AUB</t>
+          <t>OU@TA&amp;M</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -5195,19 +5195,19 @@
         </is>
       </c>
       <c r="H78" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I78" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J78" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M78" t="n">
         <v>0</v>
@@ -5216,7 +5216,7 @@
         <v>0</v>
       </c>
       <c r="O78" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79">
@@ -5237,17 +5237,17 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Rubén Dominguez</t>
+          <t>Tahaad Pettiford</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>OU@TA&amp;M</t>
+          <t>ARK@AUB</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -5259,25 +5259,25 @@
         <v>10</v>
       </c>
       <c r="I79" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J79" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M79" t="n">
         <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O79" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80">
@@ -5298,17 +5298,17 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Tahaad Pettiford</t>
+          <t>Shawn Jones Jr.</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>ARK@AUB</t>
+          <t>MSST@UK</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -5317,28 +5317,28 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I80" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K80" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N80" t="n">
         <v>2</v>
       </c>
       <c r="O80" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81">
@@ -5359,17 +5359,17 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Shawn Jones Jr.</t>
+          <t>Karter Knox</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>MSST@UK</t>
+          <t>ARK@AUB</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -5378,28 +5378,28 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
         <v>1</v>
       </c>
       <c r="K81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
       </c>
       <c r="M81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O81" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82">
@@ -10509,11 +10509,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
@@ -10522,11 +10522,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
@@ -10535,11 +10535,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
@@ -10548,11 +10548,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
@@ -10561,11 +10561,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -10574,11 +10574,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Booz</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
@@ -10587,11 +10587,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C8" t="n">
         <v>5</v>
